--- a/data/opec_prices/opec_oil_spot_prices.xlsx
+++ b/data/opec_prices/opec_oil_spot_prices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/willrodman/Desktop/willcrodman.github.io/data/opec_prices/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28248DA4-DAD2-774C-B2F9-2347CDFA4E95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2A6BF3-E4B0-7F40-80FB-04B4E9D8BEAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="500" windowWidth="27800" windowHeight="13860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 7.1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1941" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1941" uniqueCount="24">
   <si>
     <t>Section 7 — Oil prices</t>
   </si>
@@ -128,48 +128,6 @@
   </si>
   <si>
     <t>1) As of 2022, ORB based on Basrah Medium, before Basrah Light</t>
-  </si>
-  <si>
-    <t>Algeria</t>
-  </si>
-  <si>
-    <t>Angola</t>
-  </si>
-  <si>
-    <t>Congo</t>
-  </si>
-  <si>
-    <t>Equatorial Guinea</t>
-  </si>
-  <si>
-    <t>Gabon</t>
-  </si>
-  <si>
-    <t>I.R.Iran</t>
-  </si>
-  <si>
-    <t>Iraq</t>
-  </si>
-  <si>
-    <t>Kuwait</t>
-  </si>
-  <si>
-    <t>Libya</t>
-  </si>
-  <si>
-    <t>Nigeria</t>
-  </si>
-  <si>
-    <t>Saudi Arabia</t>
-  </si>
-  <si>
-    <t>United Arab Emirates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Venezuela </t>
-  </si>
-  <si>
-    <t>OPEC</t>
   </si>
   <si>
     <t>Index</t>
@@ -745,10 +703,10 @@
   <dimension ref="A1:IS347"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="M13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AQ47" sqref="AQ47"/>
+      <selection pane="bottomRight" activeCell="A35" sqref="A35:AO49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
@@ -28516,7 +28474,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97FE112B-40AE-584E-9B79-83E5CAF1C104}">
   <dimension ref="A1:AO15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
@@ -28525,7 +28485,7 @@
   <sheetData>
     <row r="1" spans="1:41">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B1">
         <v>1983</v>
@@ -28650,73 +28610,73 @@
     </row>
     <row r="2" spans="1:41">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>29.9</v>
+        <v>29.901</v>
       </c>
       <c r="C2">
-        <v>28.72</v>
+        <v>28.721</v>
       </c>
       <c r="D2">
         <v>27.63</v>
       </c>
       <c r="E2">
-        <v>14.53</v>
+        <v>14.525</v>
       </c>
       <c r="F2">
-        <v>18.36</v>
+        <v>18.363</v>
       </c>
       <c r="G2">
-        <v>15.14</v>
+        <v>15.138</v>
       </c>
       <c r="H2">
-        <v>18.53</v>
+        <v>18.527999999999999</v>
       </c>
       <c r="I2">
-        <v>24.34</v>
+        <v>24.344000000000001</v>
       </c>
       <c r="J2">
-        <v>21.04</v>
+        <v>21.038</v>
       </c>
       <c r="K2">
-        <v>20.03</v>
+        <v>20.027000000000001</v>
       </c>
       <c r="L2">
-        <v>17.5</v>
+        <v>17.495000000000001</v>
       </c>
       <c r="M2">
-        <v>16.190000000000001</v>
+        <v>16.193000000000001</v>
       </c>
       <c r="N2">
-        <v>17.41</v>
+        <v>17.405000000000001</v>
       </c>
       <c r="O2">
-        <v>21.33</v>
+        <v>21.334</v>
       </c>
       <c r="P2">
-        <v>19.62</v>
+        <v>19.623000000000001</v>
       </c>
       <c r="Q2">
-        <v>13.02</v>
+        <v>13.019</v>
       </c>
       <c r="R2">
         <v>18.12</v>
       </c>
       <c r="S2">
-        <v>28.77</v>
+        <v>28.768000000000001</v>
       </c>
       <c r="T2">
         <v>24.74</v>
       </c>
       <c r="U2">
-        <v>24.91</v>
+        <v>24.908000000000001</v>
       </c>
       <c r="V2">
-        <v>28.73</v>
+        <v>28.727</v>
       </c>
       <c r="W2">
-        <v>38.35</v>
+        <v>38.344999999999999</v>
       </c>
       <c r="X2">
         <v>54.64</v>
@@ -28775,7 +28735,7 @@
     </row>
     <row r="3" spans="1:41">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
@@ -28838,13 +28798,13 @@
         <v>31.02</v>
       </c>
       <c r="V3">
-        <v>28.33</v>
+        <v>28.326000000000001</v>
       </c>
       <c r="W3">
-        <v>35.770000000000003</v>
+        <v>35.765000000000001</v>
       </c>
       <c r="X3">
-        <v>51.33</v>
+        <v>51.331000000000003</v>
       </c>
       <c r="Y3">
         <v>63.06</v>
@@ -28900,7 +28860,7 @@
     </row>
     <row r="4" spans="1:41">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
@@ -29025,7 +28985,7 @@
     </row>
     <row r="5" spans="1:41">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
@@ -29150,7 +29110,7 @@
     </row>
     <row r="6" spans="1:41">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
@@ -29275,73 +29235,73 @@
     </row>
     <row r="7" spans="1:41">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="B7">
-        <v>27.22</v>
+        <v>27.222000000000001</v>
       </c>
       <c r="C7">
-        <v>26.18</v>
+        <v>26.175000000000001</v>
       </c>
       <c r="D7">
-        <v>25.56</v>
+        <v>25.556000000000001</v>
       </c>
       <c r="E7">
-        <v>13.04</v>
+        <v>13.044</v>
       </c>
       <c r="F7">
-        <v>16.57</v>
+        <v>16.574000000000002</v>
       </c>
       <c r="G7">
-        <v>12.85</v>
+        <v>12.852</v>
       </c>
       <c r="H7">
-        <v>15.54</v>
+        <v>15.542999999999999</v>
       </c>
       <c r="I7">
-        <v>19.91</v>
+        <v>19.905999999999999</v>
       </c>
       <c r="J7">
-        <v>16.329999999999998</v>
+        <v>16.329000000000001</v>
       </c>
       <c r="K7">
-        <v>16.72</v>
+        <v>16.718</v>
       </c>
       <c r="L7">
-        <v>14.08</v>
+        <v>14.074999999999999</v>
       </c>
       <c r="M7">
-        <v>14.56</v>
+        <v>14.557</v>
       </c>
       <c r="N7">
-        <v>16.260000000000002</v>
+        <v>16.262</v>
       </c>
       <c r="O7">
-        <v>18.489999999999998</v>
+        <v>18.489000000000001</v>
       </c>
       <c r="P7">
-        <v>18</v>
+        <v>17.997</v>
       </c>
       <c r="Q7">
-        <v>11.45</v>
+        <v>11.452999999999999</v>
       </c>
       <c r="R7">
-        <v>16.93</v>
+        <v>16.934000000000001</v>
       </c>
       <c r="S7">
-        <v>26.02</v>
+        <v>26.021999999999998</v>
       </c>
       <c r="T7">
-        <v>21.67</v>
+        <v>21.666</v>
       </c>
       <c r="U7">
-        <v>23.09</v>
+        <v>23.094000000000001</v>
       </c>
       <c r="V7">
-        <v>26.34</v>
+        <v>26.335000000000001</v>
       </c>
       <c r="W7">
-        <v>33.06</v>
+        <v>33.061</v>
       </c>
       <c r="X7">
         <v>47.99</v>
@@ -29400,19 +29360,19 @@
     </row>
     <row r="8" spans="1:41">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B8">
-        <v>28.43</v>
+        <v>28.425000000000001</v>
       </c>
       <c r="C8">
-        <v>27.78</v>
+        <v>27.782</v>
       </c>
       <c r="D8">
         <v>26.65</v>
       </c>
       <c r="E8">
-        <v>13.63</v>
+        <v>13.632999999999999</v>
       </c>
       <c r="F8">
         <v>16.899999999999999</v>
@@ -29448,25 +29408,25 @@
         <v>17</v>
       </c>
       <c r="Q8">
-        <v>10.77</v>
+        <v>10.766666666666666</v>
       </c>
       <c r="R8">
-        <v>16.28</v>
+        <v>16.283750000000001</v>
       </c>
       <c r="S8">
-        <v>24.92</v>
+        <v>24.918749999999999</v>
       </c>
       <c r="T8">
-        <v>20</v>
+        <v>20.00291666666666</v>
       </c>
       <c r="U8">
-        <v>23.32</v>
+        <v>23.317</v>
       </c>
       <c r="V8">
-        <v>26.6</v>
+        <v>26.597999999999999</v>
       </c>
       <c r="W8">
-        <v>34.6</v>
+        <v>34.595999999999997</v>
       </c>
       <c r="X8">
         <v>48.33</v>
@@ -29525,58 +29485,58 @@
     </row>
     <row r="9" spans="1:41">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B9">
-        <v>27.34</v>
+        <v>27.343</v>
       </c>
       <c r="C9">
-        <v>26.77</v>
+        <v>26.768999999999998</v>
       </c>
       <c r="D9">
-        <v>26.29</v>
+        <v>26.288</v>
       </c>
       <c r="E9">
-        <v>12.65</v>
+        <v>12.653</v>
       </c>
       <c r="F9">
-        <v>16.48</v>
+        <v>16.475000000000001</v>
       </c>
       <c r="G9">
-        <v>12.61</v>
+        <v>12.605</v>
       </c>
       <c r="H9">
-        <v>15.23</v>
+        <v>15.234</v>
       </c>
       <c r="I9">
-        <v>15.06</v>
+        <v>15.061999999999999</v>
       </c>
       <c r="J9" t="s">
         <v>17</v>
       </c>
       <c r="K9">
-        <v>16.850000000000001</v>
+        <v>16.849</v>
       </c>
       <c r="L9">
-        <v>14.07</v>
+        <v>14.068</v>
       </c>
       <c r="M9">
-        <v>14.11</v>
+        <v>14.111000000000001</v>
       </c>
       <c r="N9">
-        <v>15.9</v>
+        <v>15.898</v>
       </c>
       <c r="O9">
-        <v>18.41</v>
+        <v>18.413</v>
       </c>
       <c r="P9">
-        <v>17.809999999999999</v>
+        <v>17.809000000000001</v>
       </c>
       <c r="Q9">
-        <v>11.26</v>
+        <v>11.259</v>
       </c>
       <c r="R9">
-        <v>16.75</v>
+        <v>16.753</v>
       </c>
       <c r="S9">
         <v>25.78</v>
@@ -29585,13 +29545,13 @@
         <v>21.37</v>
       </c>
       <c r="U9">
-        <v>23.61</v>
+        <v>23.606000000000002</v>
       </c>
       <c r="V9">
-        <v>26.89</v>
+        <v>26.893000000000001</v>
       </c>
       <c r="W9">
-        <v>34.08</v>
+        <v>34.076999999999998</v>
       </c>
       <c r="X9">
         <v>48.66</v>
@@ -29650,73 +29610,73 @@
     </row>
     <row r="10" spans="1:41">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="B10">
-        <v>29.14</v>
+        <v>29.138000000000002</v>
       </c>
       <c r="C10">
-        <v>28.43</v>
+        <v>28.427</v>
       </c>
       <c r="D10">
         <v>27.31</v>
       </c>
       <c r="E10">
-        <v>13.42</v>
+        <v>13.417</v>
       </c>
       <c r="F10">
-        <v>17.739999999999998</v>
+        <v>17.742999999999999</v>
       </c>
       <c r="G10">
-        <v>14.41</v>
+        <v>14.407</v>
       </c>
       <c r="H10">
-        <v>17.78</v>
+        <v>17.783000000000001</v>
       </c>
       <c r="I10">
-        <v>23.24</v>
+        <v>23.244</v>
       </c>
       <c r="J10">
-        <v>19.510000000000002</v>
+        <v>19.512</v>
       </c>
       <c r="K10">
-        <v>18.79</v>
+        <v>18.792999999999999</v>
       </c>
       <c r="L10">
-        <v>16.43</v>
+        <v>16.431000000000001</v>
       </c>
       <c r="M10">
-        <v>15.57</v>
+        <v>15.571</v>
       </c>
       <c r="N10">
-        <v>17.059999999999999</v>
+        <v>17.062000000000001</v>
       </c>
       <c r="O10">
-        <v>20.7</v>
+        <v>20.695</v>
       </c>
       <c r="P10">
-        <v>19</v>
+        <v>18.995000000000001</v>
       </c>
       <c r="Q10">
-        <v>12.9</v>
+        <v>12.903</v>
       </c>
       <c r="R10">
-        <v>18.04</v>
+        <v>18.044</v>
       </c>
       <c r="S10">
-        <v>28.62</v>
+        <v>28.614999999999998</v>
       </c>
       <c r="T10">
-        <v>24.7</v>
+        <v>24.699000000000002</v>
       </c>
       <c r="U10">
-        <v>24.55</v>
+        <v>24.545000000000002</v>
       </c>
       <c r="V10">
         <v>28.21</v>
       </c>
       <c r="W10">
-        <v>36.58</v>
+        <v>36.581000000000003</v>
       </c>
       <c r="X10">
         <v>52.62</v>
@@ -29775,73 +29735,73 @@
     </row>
     <row r="11" spans="1:41">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="B11">
         <v>29.9</v>
       </c>
       <c r="C11">
-        <v>28.89</v>
+        <v>28.888000000000002</v>
       </c>
       <c r="D11">
-        <v>27.77</v>
+        <v>27.765999999999998</v>
       </c>
       <c r="E11">
-        <v>14.48</v>
+        <v>14.475</v>
       </c>
       <c r="F11">
-        <v>18.5</v>
+        <v>18.498999999999999</v>
       </c>
       <c r="G11">
-        <v>15.11</v>
+        <v>15.113</v>
       </c>
       <c r="H11">
-        <v>18.5</v>
+        <v>18.501999999999999</v>
       </c>
       <c r="I11">
-        <v>24.16</v>
+        <v>24.164000000000001</v>
       </c>
       <c r="J11">
-        <v>20.55</v>
+        <v>20.553000000000001</v>
       </c>
       <c r="K11">
-        <v>19.95</v>
+        <v>19.952000000000002</v>
       </c>
       <c r="L11">
-        <v>17.57</v>
+        <v>17.565000000000001</v>
       </c>
       <c r="M11">
-        <v>16.21</v>
+        <v>16.213999999999999</v>
       </c>
       <c r="N11">
         <v>17.34</v>
       </c>
       <c r="O11">
-        <v>21.24</v>
+        <v>21.238</v>
       </c>
       <c r="P11">
-        <v>19.399999999999999</v>
+        <v>19.404</v>
       </c>
       <c r="Q11">
-        <v>12.77</v>
+        <v>12.771000000000001</v>
       </c>
       <c r="R11">
-        <v>18.07</v>
+        <v>18.065999999999999</v>
       </c>
       <c r="S11">
-        <v>28.49</v>
+        <v>28.492999999999999</v>
       </c>
       <c r="T11">
         <v>24.5</v>
       </c>
       <c r="U11">
-        <v>25.15</v>
+        <v>25.152999999999999</v>
       </c>
       <c r="V11">
-        <v>28.77</v>
+        <v>28.765000000000001</v>
       </c>
       <c r="W11">
-        <v>38.270000000000003</v>
+        <v>38.268999999999998</v>
       </c>
       <c r="X11">
         <v>55.67</v>
@@ -29900,70 +29860,70 @@
     </row>
     <row r="12" spans="1:41">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="B12">
-        <v>28.78</v>
+        <v>28.777999999999999</v>
       </c>
       <c r="C12">
-        <v>28.06</v>
+        <v>28.058</v>
       </c>
       <c r="D12">
-        <v>27.54</v>
+        <v>27.542000000000002</v>
       </c>
       <c r="E12">
-        <v>13.73</v>
+        <v>13.728</v>
       </c>
       <c r="F12">
-        <v>17.23</v>
+        <v>17.225999999999999</v>
       </c>
       <c r="G12">
-        <v>13.4</v>
+        <v>13.401999999999999</v>
       </c>
       <c r="H12">
-        <v>16.21</v>
+        <v>16.207000000000001</v>
       </c>
       <c r="I12">
-        <v>20.82</v>
+        <v>20.815000000000001</v>
       </c>
       <c r="J12">
-        <v>17.43</v>
+        <v>17.431999999999999</v>
       </c>
       <c r="K12">
-        <v>17.940000000000001</v>
+        <v>17.936</v>
       </c>
       <c r="L12">
-        <v>15.68</v>
+        <v>15.683999999999999</v>
       </c>
       <c r="M12">
-        <v>15.39</v>
+        <v>15.394</v>
       </c>
       <c r="N12">
-        <v>16.73</v>
+        <v>16.725000000000001</v>
       </c>
       <c r="O12">
-        <v>19.91</v>
+        <v>19.905000000000001</v>
       </c>
       <c r="P12">
-        <v>18.71</v>
+        <v>18.706</v>
       </c>
       <c r="Q12">
-        <v>12.2</v>
+        <v>12.198</v>
       </c>
       <c r="R12">
-        <v>17.45</v>
+        <v>17.451000000000001</v>
       </c>
       <c r="S12">
-        <v>26.81</v>
+        <v>26.806999999999999</v>
       </c>
       <c r="T12">
-        <v>23.06</v>
+        <v>23.061</v>
       </c>
       <c r="U12">
-        <v>24.32</v>
+        <v>24.318000000000001</v>
       </c>
       <c r="V12">
-        <v>27.69</v>
+        <v>27.686</v>
       </c>
       <c r="W12">
         <v>34.53</v>
@@ -30025,58 +29985,58 @@
     </row>
     <row r="13" spans="1:41">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="B13">
-        <v>29.26</v>
+        <v>29.256</v>
       </c>
       <c r="C13">
-        <v>28.31</v>
+        <v>28.312000000000001</v>
       </c>
       <c r="D13">
-        <v>27.43</v>
+        <v>27.433</v>
       </c>
       <c r="E13">
-        <v>13.65</v>
+        <v>13.654</v>
       </c>
       <c r="F13">
-        <v>17.54</v>
+        <v>17.544</v>
       </c>
       <c r="G13">
         <v>13.92</v>
       </c>
       <c r="H13">
-        <v>16.61</v>
+        <v>16.606999999999999</v>
       </c>
       <c r="I13">
-        <v>21.7</v>
+        <v>21.696000000000002</v>
       </c>
       <c r="J13">
-        <v>18.170000000000002</v>
+        <v>18.167999999999999</v>
       </c>
       <c r="K13">
-        <v>18.86</v>
+        <v>18.861999999999998</v>
       </c>
       <c r="L13">
-        <v>16.899999999999999</v>
+        <v>16.896999999999998</v>
       </c>
       <c r="M13">
         <v>16.21</v>
       </c>
       <c r="N13">
-        <v>17.18</v>
+        <v>17.178999999999998</v>
       </c>
       <c r="O13">
-        <v>20.3</v>
+        <v>20.303999999999998</v>
       </c>
       <c r="P13">
-        <v>19.59</v>
+        <v>19.591999999999999</v>
       </c>
       <c r="Q13">
-        <v>12.67</v>
+        <v>12.667</v>
       </c>
       <c r="R13">
-        <v>17.89</v>
+        <v>17.885000000000002</v>
       </c>
       <c r="S13">
         <v>27.75</v>
@@ -30085,13 +30045,13 @@
         <v>24.02</v>
       </c>
       <c r="U13">
-        <v>24.87</v>
+        <v>24.870999999999999</v>
       </c>
       <c r="V13">
-        <v>28.25</v>
+        <v>28.245999999999999</v>
       </c>
       <c r="W13">
-        <v>36.65</v>
+        <v>36.654000000000003</v>
       </c>
       <c r="X13">
         <v>54.09</v>
@@ -30150,7 +30110,7 @@
     </row>
     <row r="14" spans="1:41">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
@@ -30275,73 +30235,73 @@
     </row>
     <row r="15" spans="1:41">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="B15">
-        <v>29.04</v>
+        <v>29.036999999999999</v>
       </c>
       <c r="C15">
-        <v>28.2</v>
+        <v>28.204000000000001</v>
       </c>
       <c r="D15">
-        <v>27.01</v>
+        <v>27.007000000000001</v>
       </c>
       <c r="E15">
-        <v>13.53</v>
+        <v>13.532999999999999</v>
       </c>
       <c r="F15">
-        <v>17.73</v>
+        <v>17.725000000000001</v>
       </c>
       <c r="G15">
-        <v>14.24</v>
+        <v>14.243</v>
       </c>
       <c r="H15">
-        <v>17.309999999999999</v>
+        <v>17.311</v>
       </c>
       <c r="I15">
-        <v>22.26</v>
+        <v>22.257000000000001</v>
       </c>
       <c r="J15">
-        <v>18.62</v>
+        <v>18.622</v>
       </c>
       <c r="K15">
         <v>18.440000000000001</v>
       </c>
       <c r="L15">
-        <v>16.329999999999998</v>
+        <v>16.324999999999999</v>
       </c>
       <c r="M15">
-        <v>15.53</v>
+        <v>15.526999999999999</v>
       </c>
       <c r="N15">
         <v>16.86</v>
       </c>
       <c r="O15">
-        <v>20.29</v>
+        <v>20.291</v>
       </c>
       <c r="P15">
-        <v>18.68</v>
+        <v>18.675999999999998</v>
       </c>
       <c r="Q15">
-        <v>12.28</v>
+        <v>12.282</v>
       </c>
       <c r="R15">
-        <v>17.48</v>
+        <v>17.475000000000001</v>
       </c>
       <c r="S15">
-        <v>27.6</v>
+        <v>27.596</v>
       </c>
       <c r="T15">
-        <v>23.12</v>
+        <v>23.123000000000001</v>
       </c>
       <c r="U15">
-        <v>24.36</v>
+        <v>24.363</v>
       </c>
       <c r="V15">
-        <v>28.1</v>
+        <v>28.097000000000001</v>
       </c>
       <c r="W15">
-        <v>36.049999999999997</v>
+        <v>36.045000000000002</v>
       </c>
       <c r="X15">
         <v>50.64</v>

--- a/data/opec_prices/opec_oil_spot_prices.xlsx
+++ b/data/opec_prices/opec_oil_spot_prices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/willrodman/Desktop/willcrodman.github.io/data/opec_prices/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2A6BF3-E4B0-7F40-80FB-04B4E9D8BEAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59933D50-A445-604F-8057-3D43398CF32F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 7.1" sheetId="1" r:id="rId1"/>
@@ -28475,7 +28475,7 @@
   <dimension ref="A1:AO15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
